--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lrfn3-Lrfn3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lrfn3-Lrfn3.xlsx
@@ -525,52 +525,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4264723333333333</v>
+        <v>0.4618053333333333</v>
       </c>
       <c r="H2">
-        <v>1.279417</v>
+        <v>1.385416</v>
       </c>
       <c r="I2">
-        <v>0.09324268104055088</v>
+        <v>0.1241019586052997</v>
       </c>
       <c r="J2">
-        <v>0.1065665761548585</v>
+        <v>0.1340391058009509</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4264723333333333</v>
+        <v>0.4618053333333333</v>
       </c>
       <c r="N2">
-        <v>1.279417</v>
+        <v>1.385416</v>
       </c>
       <c r="O2">
-        <v>0.09324268104055088</v>
+        <v>0.1241019586052997</v>
       </c>
       <c r="P2">
-        <v>0.1065665761548585</v>
+        <v>0.1340391058009509</v>
       </c>
       <c r="Q2">
-        <v>0.1818786510987778</v>
+        <v>0.2132641658951111</v>
       </c>
       <c r="R2">
-        <v>1.636907859889</v>
+        <v>1.919377493056</v>
       </c>
       <c r="S2">
-        <v>0.008694197567629906</v>
+        <v>0.01540129612967151</v>
       </c>
       <c r="T2">
-        <v>0.01135643515336925</v>
+        <v>0.0179664818839185</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,22 +587,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4264723333333333</v>
+        <v>0.4618053333333333</v>
       </c>
       <c r="H3">
-        <v>1.279417</v>
+        <v>1.385416</v>
       </c>
       <c r="I3">
-        <v>0.09324268104055088</v>
+        <v>0.1241019586052997</v>
       </c>
       <c r="J3">
-        <v>0.1065665761548585</v>
+        <v>0.1340391058009509</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,22 +617,22 @@
         <v>7.295249999999999</v>
       </c>
       <c r="O3">
-        <v>0.531670806985587</v>
+        <v>0.6534895031638961</v>
       </c>
       <c r="P3">
-        <v>0.6076438054940111</v>
+        <v>0.7058160051525222</v>
       </c>
       <c r="Q3">
-        <v>1.037074096583333</v>
+        <v>1.122995119333333</v>
       </c>
       <c r="R3">
-        <v>9.333666869249999</v>
+        <v>10.106956074</v>
       </c>
       <c r="S3">
-        <v>0.04957441147432938</v>
+        <v>0.08109932727064367</v>
       </c>
       <c r="T3">
-        <v>0.06475451987320555</v>
+        <v>0.09460694619064339</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,22 +649,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4264723333333333</v>
+        <v>0.4618053333333333</v>
       </c>
       <c r="H4">
-        <v>1.279417</v>
+        <v>1.385416</v>
       </c>
       <c r="I4">
-        <v>0.09324268104055088</v>
+        <v>0.1241019586052997</v>
       </c>
       <c r="J4">
-        <v>0.1065665761548585</v>
+        <v>0.1340391058009509</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -673,28 +673,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.7155665</v>
+        <v>0.8276215</v>
       </c>
       <c r="N4">
-        <v>3.431133</v>
+        <v>1.655243</v>
       </c>
       <c r="O4">
-        <v>0.3750865119738621</v>
+        <v>0.2224085382308043</v>
       </c>
       <c r="P4">
-        <v>0.2857896183511303</v>
+        <v>0.160144889046527</v>
       </c>
       <c r="Q4">
-        <v>0.7316416482435</v>
+        <v>0.3822000226813334</v>
       </c>
       <c r="R4">
-        <v>4.389849889461</v>
+        <v>2.293200136088</v>
       </c>
       <c r="S4">
-        <v>0.03497407199859159</v>
+        <v>0.02760133520498449</v>
       </c>
       <c r="T4">
-        <v>0.03045562112828366</v>
+        <v>0.02146567772638897</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,40 +723,40 @@
         <v>7.295249999999999</v>
       </c>
       <c r="I5">
-        <v>0.531670806985587</v>
+        <v>0.6534895031638961</v>
       </c>
       <c r="J5">
-        <v>0.6076438054940111</v>
+        <v>0.7058160051525222</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4264723333333333</v>
+        <v>0.4618053333333333</v>
       </c>
       <c r="N5">
-        <v>1.279417</v>
+        <v>1.385416</v>
       </c>
       <c r="O5">
-        <v>0.09324268104055088</v>
+        <v>0.1241019586052997</v>
       </c>
       <c r="P5">
-        <v>0.1065665761548585</v>
+        <v>0.1340391058009509</v>
       </c>
       <c r="Q5">
-        <v>1.037074096583333</v>
+        <v>1.122995119333333</v>
       </c>
       <c r="R5">
-        <v>9.333666869249999</v>
+        <v>10.106956074</v>
       </c>
       <c r="S5">
-        <v>0.04957441147432938</v>
+        <v>0.08109932727064367</v>
       </c>
       <c r="T5">
-        <v>0.06475451987320555</v>
+        <v>0.09460694619064339</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,10 +785,10 @@
         <v>7.295249999999999</v>
       </c>
       <c r="I6">
-        <v>0.531670806985587</v>
+        <v>0.6534895031638961</v>
       </c>
       <c r="J6">
-        <v>0.6076438054940111</v>
+        <v>0.7058160051525222</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,10 +803,10 @@
         <v>7.295249999999999</v>
       </c>
       <c r="O6">
-        <v>0.531670806985587</v>
+        <v>0.6534895031638961</v>
       </c>
       <c r="P6">
-        <v>0.6076438054940111</v>
+        <v>0.7058160051525222</v>
       </c>
       <c r="Q6">
         <v>5.913408062499999</v>
@@ -815,10 +815,10 @@
         <v>53.22067256249999</v>
       </c>
       <c r="S6">
-        <v>0.2826738470007053</v>
+        <v>0.4270485307453958</v>
       </c>
       <c r="T6">
-        <v>0.3692309943552436</v>
+        <v>0.4981762331294652</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,10 +847,10 @@
         <v>7.295249999999999</v>
       </c>
       <c r="I7">
-        <v>0.531670806985587</v>
+        <v>0.6534895031638961</v>
       </c>
       <c r="J7">
-        <v>0.6076438054940111</v>
+        <v>0.7058160051525222</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -859,28 +859,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.7155665</v>
+        <v>0.8276215</v>
       </c>
       <c r="N7">
-        <v>3.431133</v>
+        <v>1.655243</v>
       </c>
       <c r="O7">
-        <v>0.3750865119738621</v>
+        <v>0.2224085382308043</v>
       </c>
       <c r="P7">
-        <v>0.2857896183511303</v>
+        <v>0.160144889046527</v>
       </c>
       <c r="Q7">
-        <v>4.171828836374999</v>
+        <v>2.012568582625</v>
       </c>
       <c r="R7">
-        <v>25.03097301825</v>
+        <v>12.07541149575</v>
       </c>
       <c r="S7">
-        <v>0.1994225485105523</v>
+        <v>0.1453416451478567</v>
       </c>
       <c r="T7">
-        <v>0.1736582912655619</v>
+        <v>0.1130328258324136</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,46 +903,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.7155665</v>
+        <v>0.8276215</v>
       </c>
       <c r="H8">
-        <v>3.431133</v>
+        <v>1.655243</v>
       </c>
       <c r="I8">
-        <v>0.3750865119738621</v>
+        <v>0.2224085382308043</v>
       </c>
       <c r="J8">
-        <v>0.2857896183511303</v>
+        <v>0.160144889046527</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4264723333333333</v>
+        <v>0.4618053333333333</v>
       </c>
       <c r="N8">
-        <v>1.279417</v>
+        <v>1.385416</v>
       </c>
       <c r="O8">
-        <v>0.09324268104055088</v>
+        <v>0.1241019586052997</v>
       </c>
       <c r="P8">
-        <v>0.1065665761548585</v>
+        <v>0.1340391058009509</v>
       </c>
       <c r="Q8">
-        <v>0.7316416482435</v>
+        <v>0.3822000226813334</v>
       </c>
       <c r="R8">
-        <v>4.389849889461</v>
+        <v>2.293200136088</v>
       </c>
       <c r="S8">
-        <v>0.03497407199859159</v>
+        <v>0.02760133520498449</v>
       </c>
       <c r="T8">
-        <v>0.03045562112828366</v>
+        <v>0.02146567772638897</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,16 +965,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.7155665</v>
+        <v>0.8276215</v>
       </c>
       <c r="H9">
-        <v>3.431133</v>
+        <v>1.655243</v>
       </c>
       <c r="I9">
-        <v>0.3750865119738621</v>
+        <v>0.2224085382308043</v>
       </c>
       <c r="J9">
-        <v>0.2857896183511303</v>
+        <v>0.160144889046527</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,22 +989,22 @@
         <v>7.295249999999999</v>
       </c>
       <c r="O9">
-        <v>0.531670806985587</v>
+        <v>0.6534895031638961</v>
       </c>
       <c r="P9">
-        <v>0.6076438054940111</v>
+        <v>0.7058160051525222</v>
       </c>
       <c r="Q9">
-        <v>4.171828836374999</v>
+        <v>2.012568582625</v>
       </c>
       <c r="R9">
-        <v>25.03097301825</v>
+        <v>12.07541149575</v>
       </c>
       <c r="S9">
-        <v>0.1994225485105523</v>
+        <v>0.1453416451478567</v>
       </c>
       <c r="T9">
-        <v>0.1736582912655619</v>
+        <v>0.1130328258324136</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,16 +1027,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.7155665</v>
+        <v>0.8276215</v>
       </c>
       <c r="H10">
-        <v>3.431133</v>
+        <v>1.655243</v>
       </c>
       <c r="I10">
-        <v>0.3750865119738621</v>
+        <v>0.2224085382308043</v>
       </c>
       <c r="J10">
-        <v>0.2857896183511303</v>
+        <v>0.160144889046527</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1045,28 +1045,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.7155665</v>
+        <v>0.8276215</v>
       </c>
       <c r="N10">
-        <v>3.431133</v>
+        <v>1.655243</v>
       </c>
       <c r="O10">
-        <v>0.3750865119738621</v>
+        <v>0.2224085382308043</v>
       </c>
       <c r="P10">
-        <v>0.2857896183511303</v>
+        <v>0.160144889046527</v>
       </c>
       <c r="Q10">
-        <v>2.94316841592225</v>
+        <v>0.68495734726225</v>
       </c>
       <c r="R10">
-        <v>11.772673663689</v>
+        <v>2.739829389049</v>
       </c>
       <c r="S10">
-        <v>0.1406898914647182</v>
+        <v>0.04946555787796315</v>
       </c>
       <c r="T10">
-        <v>0.08167570595728468</v>
+        <v>0.02564638548772446</v>
       </c>
     </row>
   </sheetData>
